--- a/config.xlsx
+++ b/config.xlsx
@@ -24,13 +24,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>項目</t>
+    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
+    <t>結婚紀念日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -38,11 +38,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>結婚紀念日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx</t>
+    <t>項目名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -51,9 +47,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="180" formatCode="mm/dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -68,6 +64,13 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Adobe 繁黑體 Std B"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -92,11 +95,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -379,52 +385,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>44638</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>44690</v>
-      </c>
-      <c r="C3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44692</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config.xlsx
+++ b/config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\py-date-notify\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\RAY\py-date-notify\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$C$16</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +42,254 @@
   </si>
   <si>
     <t>項目名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老婆生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茂益生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大竹生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIC生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAY生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臭生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欣燕生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>媽生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VINCENT生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HANK生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DINO生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NICK生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JENNY生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIN生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STEVEN生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAYNE生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XUN生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAMES生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JASON生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楷生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波特生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佳苓生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慧熒生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BILL生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老丁生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貝爾生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品客生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jocelyn kuo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>振喻生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diego</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莊容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高義傑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BART</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鍾家豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿銓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布魯斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羅以云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淑娟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永霖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿強</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘燁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍爾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>獻國</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彥湧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耿嘉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張舜凱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葉力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄚ欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUNGLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHAWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JERRY(黃)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子軍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄚ嘎生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAY生日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -47,7 +298,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="mm/dd;@"/>
+    <numFmt numFmtId="176" formatCode="mm/dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -68,7 +319,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Adobe 繁黑體 Std B"/>
+      <name val="Microsoft JhengHei UI"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
@@ -102,7 +353,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -385,17 +636,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -411,16 +663,703 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2">
+        <v>44565</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44566</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44571</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44583</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44587</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44601</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44602</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44602</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44616</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44620</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44629</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44634</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44638</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44643</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44643</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44669</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44687</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44688</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44689</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44690</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="2">
         <v>44692</v>
       </c>
-      <c r="C2" s="1">
-        <v>2</v>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="2">
+        <v>44694</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44697</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44707</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44713</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44714</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="2">
+        <v>44725</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="2">
+        <v>44728</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="2">
+        <v>44729</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2">
+        <v>44730</v>
+      </c>
+      <c r="C31" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44749</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="2">
+        <v>44751</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44752</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="2">
+        <v>44756</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="2">
+        <v>44767</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="2">
+        <v>44774</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="2">
+        <v>44782</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="2">
+        <v>44798</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="2">
+        <v>44802</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="2">
+        <v>44807</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="2">
+        <v>44808</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="2">
+        <v>44818</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="2">
+        <v>44820</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="2">
+        <v>44821</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="2">
+        <v>44824</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2">
+        <v>44830</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2">
+        <v>44838</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="2">
+        <v>44859</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="2">
+        <v>44862</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="2">
+        <v>44870</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="2">
+        <v>44883</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="2">
+        <v>44886</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="2">
+        <v>44892</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="2">
+        <v>44894</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="2">
+        <v>44902</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" s="2">
+        <v>44905</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" s="2">
+        <v>44906</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="2">
+        <v>44907</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="2">
+        <v>44910</v>
+      </c>
+      <c r="C60" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" s="2">
+        <v>44910</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="2">
+        <v>44910</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="2">
+        <v>44911</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="2">
+        <v>44710</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C16">
+    <sortState ref="A2:C80">
+      <sortCondition ref="B1:B20"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\RAY\py-date-notify\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\py-date-notify\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$C$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$C$15</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JASON生日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>楷生日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,6 +286,14 @@
   </si>
   <si>
     <t>MAY生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fong生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷銓生日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -674,10 +678,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2">
-        <v>44566</v>
+        <v>44571</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -685,10 +689,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2">
-        <v>44571</v>
+        <v>44583</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -696,10 +700,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2">
-        <v>44583</v>
+        <v>44587</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -710,7 +714,7 @@
         <v>57</v>
       </c>
       <c r="B6" s="2">
-        <v>44587</v>
+        <v>44966</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -718,10 +722,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -729,7 +733,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2">
         <v>44602</v>
@@ -740,10 +744,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2">
-        <v>44602</v>
+        <v>44616</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -751,10 +755,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B10" s="2">
-        <v>44616</v>
+        <v>44620</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -762,10 +766,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2">
-        <v>44620</v>
+        <v>44629</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -773,10 +777,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2">
-        <v>44629</v>
+        <v>44634</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -784,29 +788,29 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>44634</v>
+        <v>44638</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2">
-        <v>44638</v>
+        <v>44643</v>
       </c>
       <c r="C14" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2">
         <v>44643</v>
@@ -817,10 +821,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B16" s="2">
-        <v>44643</v>
+        <v>44669</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -828,10 +832,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>44669</v>
+        <v>44687</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -839,10 +843,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B18" s="2">
-        <v>44687</v>
+        <v>44688</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -850,10 +854,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B19" s="2">
-        <v>44688</v>
+        <v>44689</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -861,10 +865,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2">
-        <v>44689</v>
+        <v>44690</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -872,10 +876,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2">
-        <v>44690</v>
+        <v>44692</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -883,10 +887,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2">
-        <v>44692</v>
+        <v>44694</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -894,10 +898,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2">
-        <v>44694</v>
+        <v>44697</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -905,10 +909,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B24" s="2">
-        <v>44697</v>
+        <v>44707</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -916,10 +920,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B25" s="2">
-        <v>44707</v>
+        <v>44710</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -927,7 +931,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="2">
         <v>44713</v>
@@ -938,7 +942,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2">
         <v>44714</v>
@@ -960,7 +964,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" s="2">
         <v>44728</v>
@@ -993,7 +997,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2">
         <v>44749</v>
@@ -1004,7 +1008,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2">
         <v>44751</v>
@@ -1037,7 +1041,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" s="2">
         <v>44767</v>
@@ -1059,7 +1063,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="2">
         <v>44782</v>
@@ -1081,7 +1085,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B40" s="2">
         <v>44802</v>
@@ -1092,7 +1096,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B41" s="2">
         <v>44807</v>
@@ -1114,7 +1118,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" s="2">
         <v>44818</v>
@@ -1136,7 +1140,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="2">
         <v>44821</v>
@@ -1147,7 +1151,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B46" s="2">
         <v>44824</v>
@@ -1158,7 +1162,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" s="2">
         <v>44830</v>
@@ -1169,7 +1173,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2">
         <v>44838</v>
@@ -1180,7 +1184,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B49" s="2">
         <v>44859</v>
@@ -1191,7 +1195,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50" s="2">
         <v>44862</v>
@@ -1202,7 +1206,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" s="2">
         <v>44870</v>
@@ -1213,10 +1217,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="B52" s="2">
-        <v>44883</v>
+        <v>45238</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -1224,10 +1228,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="B53" s="2">
-        <v>44886</v>
+        <v>44883</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
@@ -1235,10 +1239,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B54" s="2">
-        <v>44892</v>
+        <v>44886</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
@@ -1246,10 +1250,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B55" s="2">
-        <v>44894</v>
+        <v>44892</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
@@ -1257,10 +1261,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B56" s="2">
-        <v>44902</v>
+        <v>44894</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -1268,10 +1272,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B57" s="2">
-        <v>44905</v>
+        <v>44902</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -1279,10 +1283,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B58" s="2">
-        <v>44906</v>
+        <v>44905</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -1290,10 +1294,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B59" s="2">
-        <v>44907</v>
+        <v>44906</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
@@ -1301,29 +1305,29 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B60" s="2">
-        <v>44910</v>
+        <v>44907</v>
       </c>
       <c r="C60" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B61" s="2">
         <v>44910</v>
       </c>
       <c r="C61" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B62" s="2">
         <v>44910</v>
@@ -1334,10 +1338,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B63" s="2">
-        <v>44911</v>
+        <v>44910</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
@@ -1345,19 +1349,30 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B64" s="2">
-        <v>44710</v>
+        <v>44911</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
       </c>
     </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="2">
+        <v>44981</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C16">
-    <sortState ref="A2:C80">
-      <sortCondition ref="B1:B20"/>
+  <autoFilter ref="A1:C15">
+    <sortState ref="A2:C65">
+      <sortCondition ref="B1:B16"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -15,7 +15,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$C$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$C$16</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,6 +294,22 @@
   </si>
   <si>
     <t>谷銓生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍龍生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芷吟生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Karen生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子婷生日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -711,10 +727,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>44966</v>
+        <v>44602</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -722,7 +738,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2">
         <v>44602</v>
@@ -733,10 +749,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2">
-        <v>44602</v>
+        <v>44616</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -744,10 +760,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B9" s="2">
-        <v>44616</v>
+        <v>44620</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -755,10 +771,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2">
-        <v>44620</v>
+        <v>44629</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -766,10 +782,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2">
-        <v>44629</v>
+        <v>44634</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -777,29 +793,29 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>44634</v>
+        <v>44638</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2">
-        <v>44638</v>
+        <v>44643</v>
       </c>
       <c r="C13" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2">
         <v>44643</v>
@@ -810,10 +826,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B15" s="2">
-        <v>44643</v>
+        <v>44669</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -821,10 +837,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2">
-        <v>44669</v>
+        <v>44687</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -832,10 +848,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2">
-        <v>44687</v>
+        <v>44688</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -843,10 +859,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B18" s="2">
-        <v>44688</v>
+        <v>44689</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -854,10 +870,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2">
-        <v>44689</v>
+        <v>44690</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -865,10 +881,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2">
-        <v>44690</v>
+        <v>44692</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -876,10 +892,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2">
-        <v>44692</v>
+        <v>44694</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -887,10 +903,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2">
-        <v>44694</v>
+        <v>44697</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -898,10 +914,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B23" s="2">
-        <v>44697</v>
+        <v>44707</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -909,10 +925,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B24" s="2">
-        <v>44707</v>
+        <v>44710</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -920,10 +936,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B25" s="2">
-        <v>44710</v>
+        <v>44713</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -931,10 +947,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2">
-        <v>44713</v>
+        <v>44714</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -942,10 +958,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B27" s="2">
-        <v>44714</v>
+        <v>44725</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -953,10 +969,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="B28" s="2">
-        <v>44725</v>
+        <v>44728</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -964,10 +980,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B29" s="2">
-        <v>44728</v>
+        <v>44729</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -975,32 +991,32 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B30" s="2">
-        <v>44729</v>
+        <v>44730</v>
       </c>
       <c r="C30" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2">
-        <v>44730</v>
+        <v>44749</v>
       </c>
       <c r="C31" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2">
-        <v>44749</v>
+        <v>44751</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -1008,10 +1024,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B33" s="2">
-        <v>44751</v>
+        <v>44752</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -1019,10 +1035,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B34" s="2">
-        <v>44752</v>
+        <v>44756</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -1030,10 +1046,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B35" s="2">
-        <v>44756</v>
+        <v>44767</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -1041,10 +1057,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B36" s="2">
-        <v>44767</v>
+        <v>44774</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -1052,10 +1068,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B37" s="2">
-        <v>44774</v>
+        <v>44782</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -1063,10 +1079,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B38" s="2">
-        <v>44782</v>
+        <v>44798</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
@@ -1074,10 +1090,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2">
-        <v>44798</v>
+        <v>44802</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
@@ -1085,10 +1101,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B40" s="2">
-        <v>44802</v>
+        <v>44807</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -1096,10 +1112,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="B41" s="2">
-        <v>44807</v>
+        <v>44808</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -1107,10 +1123,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="B42" s="2">
-        <v>44808</v>
+        <v>44818</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -1118,10 +1134,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="B43" s="2">
-        <v>44818</v>
+        <v>44820</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -1129,10 +1145,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B44" s="2">
-        <v>44820</v>
+        <v>44821</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -1140,10 +1156,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B45" s="2">
-        <v>44821</v>
+        <v>44824</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -1151,10 +1167,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B46" s="2">
-        <v>44824</v>
+        <v>44830</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
@@ -1162,10 +1178,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2">
-        <v>44830</v>
+        <v>44838</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
@@ -1173,10 +1189,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B48" s="2">
-        <v>44838</v>
+        <v>44859</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
@@ -1184,10 +1200,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B49" s="2">
-        <v>44859</v>
+        <v>44862</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
@@ -1195,10 +1211,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B50" s="2">
-        <v>44862</v>
+        <v>44870</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -1206,10 +1222,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B51" s="2">
-        <v>44870</v>
+        <v>44883</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
@@ -1217,10 +1233,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B52" s="2">
-        <v>45238</v>
+        <v>44886</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -1228,10 +1244,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B53" s="2">
-        <v>44883</v>
+        <v>44892</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
@@ -1239,10 +1255,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B54" s="2">
-        <v>44886</v>
+        <v>44894</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
@@ -1250,10 +1266,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B55" s="2">
-        <v>44892</v>
+        <v>44902</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
@@ -1261,10 +1277,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B56" s="2">
-        <v>44894</v>
+        <v>44905</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -1272,10 +1288,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B57" s="2">
-        <v>44902</v>
+        <v>44906</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -1283,10 +1299,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B58" s="2">
-        <v>44905</v>
+        <v>44907</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -1294,21 +1310,21 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="B59" s="2">
-        <v>44906</v>
+        <v>44910</v>
       </c>
       <c r="C59" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B60" s="2">
-        <v>44907</v>
+        <v>44910</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
@@ -1316,21 +1332,21 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B61" s="2">
         <v>44910</v>
       </c>
       <c r="C61" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B62" s="2">
-        <v>44910</v>
+        <v>44911</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -1338,10 +1354,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B63" s="2">
-        <v>44910</v>
+        <v>44929</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
@@ -1349,10 +1365,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B64" s="2">
-        <v>44911</v>
+        <v>44934</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -1360,18 +1376,62 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="2">
+        <v>44966</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B66" s="2">
         <v>44981</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="2">
+        <v>44995</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2">
+        <v>45238</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="2">
+        <v>45259</v>
+      </c>
+      <c r="C69" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C15">
-    <sortState ref="A2:C65">
+  <autoFilter ref="A1:C16">
+    <sortState ref="A2:C68">
       <sortCondition ref="B1:B16"/>
     </sortState>
   </autoFilter>
